--- a/Резы/Респа для МЕ-71б на 2019 год.xlsx
+++ b/Резы/Респа для МЕ-71б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,10 +114,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -159,35 +159,35 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -208,42 +208,42 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -692,8 +692,8 @@
     <col width="92.34999999999999" customWidth="1" min="6" max="6"/>
     <col width="51.75" customWidth="1" min="7" max="7"/>
     <col width="64.8" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="29.5" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1">
@@ -770,7 +770,7 @@
       <c r="E2" s="5" t="n"/>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -808,8 +808,8 @@
       <c r="H3" s="8" t="n"/>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
-АКТ_зал
+          <t>ХЗ
+ХЗ
 237</t>
         </is>
       </c>
@@ -846,7 +846,7 @@
       <c r="H4" s="8" t="n"/>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -940,7 +940,7 @@
       <c r="H7" s="17" t="n"/>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 ФЗК_зал</t>
         </is>
       </c>
@@ -976,7 +976,7 @@
       <c r="H8" s="8" t="n"/>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 405</t>
         </is>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="H9" s="13" t="n"/>
       <c r="I9" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J9" s="10" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал, 402</t>
+          <t>ХЗ, 402</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1093,7 +1093,7 @@
       <c r="H12" s="8" t="n"/>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 421</t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="H15" s="8" t="n"/>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1251,7 +1251,7 @@
       <c r="I17" s="9" t="n"/>
       <c r="J17" s="10" t="inlineStr">
         <is>
-          <t>Преображенский Ф.Ф.</t>
+          <t>Мерзоцид Г.Ч.</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
       <c r="H20" s="8" t="n"/>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1502,7 +1502,7 @@
     <col width="93.8" customWidth="1" min="5" max="5"/>
     <col width="57.55" customWidth="1" min="6" max="6"/>
     <col width="29.5" customWidth="1" min="7" max="7"/>
-    <col width="17.5" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
     <col width="25" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -1713,7 +1713,7 @@
       <c r="G7" s="8" t="n"/>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал, II</t>
+          <t>ХЗ, II</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
@@ -1742,7 +1742,7 @@
       <c r="G8" s="8" t="n"/>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 ФЗК_зал</t>
         </is>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="G15" s="8" t="n"/>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 216</t>
         </is>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="G16" s="20" t="n"/>
       <c r="H16" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I16" s="10" t="inlineStr">
@@ -2074,7 +2074,7 @@
       <c r="G19" s="8" t="n"/>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
@@ -2130,7 +2130,7 @@
       <c r="E21" s="5" t="n"/>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <col width="57.55" customWidth="1" min="6" max="6"/>
     <col width="23.5" customWidth="1" min="7" max="7"/>
     <col width="23.5" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -2675,7 +2675,7 @@
       <c r="H15" s="12" t="n"/>
       <c r="I15" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 ФЗК_зал</t>
         </is>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="H18" s="5" t="n"/>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал, 421</t>
+          <t>ХЗ, 421</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -2814,7 +2814,7 @@
       <c r="H19" s="13" t="n"/>
       <c r="I19" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J19" s="10" t="inlineStr">
